--- a/Pandas/01-gerando arquivos/dadosExcel.xlsx
+++ b/Pandas/01-gerando arquivos/dadosExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VIVO</t>
+          <t>FILHOS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FILHOS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AUTO MÓVEL</t>
         </is>
@@ -477,79 +472,29 @@
       <c r="C2" t="n">
         <v>60.3</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="b">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>edivânia</t>
+          <t>josivaldo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C3" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>leonide</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>78</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>josivaldo</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>92</v>
-      </c>
-      <c r="C5" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Pandas/01-gerando arquivos/dadosExcel.xlsx
+++ b/Pandas/01-gerando arquivos/dadosExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jubileu</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
